--- a/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_account/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_account/expected_result.xlsx
@@ -534,10 +534,10 @@
       </c>
       <c r="B4" s="8" t="inlineStr"/>
       <c r="C4" s="8" t="n">
-        <v>-201701.35</v>
+        <v>-181022.72</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>-201701.35</v>
+        <v>-181022.72</v>
       </c>
     </row>
     <row r="5">
@@ -547,11 +547,11 @@
         </is>
       </c>
       <c r="B5" s="8" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
       <c r="C5" s="8" t="inlineStr"/>
       <c r="D5" s="8" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
     </row>
     <row r="6">
@@ -562,10 +562,10 @@
       </c>
       <c r="B6" s="8" t="inlineStr"/>
       <c r="C6" s="8" t="n">
-        <v>-176696.98</v>
+        <v>-179006</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>-176696.98</v>
+        <v>-179006</v>
       </c>
     </row>
     <row r="7">
@@ -575,11 +575,11 @@
         </is>
       </c>
       <c r="B7" s="8" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
       <c r="C7" s="8" t="inlineStr"/>
       <c r="D7" s="8" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
     </row>
     <row r="8">
@@ -590,10 +590,10 @@
       </c>
       <c r="B8" s="8" t="inlineStr"/>
       <c r="C8" s="8" t="n">
-        <v>-88086.52</v>
+        <v>-80719.32000000001</v>
       </c>
       <c r="D8" s="8" t="n">
-        <v>-88086.52</v>
+        <v>-80719.32000000001</v>
       </c>
     </row>
     <row r="9">
@@ -604,10 +604,10 @@
       </c>
       <c r="B9" s="8" t="inlineStr"/>
       <c r="C9" s="8" t="n">
-        <v>-185466.77</v>
+        <v>-190509.04</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>-185466.77</v>
+        <v>-190509.04</v>
       </c>
     </row>
     <row r="10">
@@ -617,11 +617,11 @@
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
       <c r="C10" s="8" t="inlineStr"/>
       <c r="D10" s="8" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
       </c>
       <c r="B11" s="8" t="inlineStr"/>
       <c r="C11" s="8" t="n">
-        <v>-246784.22</v>
+        <v>-279746.85</v>
       </c>
       <c r="D11" s="8" t="n">
-        <v>-246784.22</v>
+        <v>-279746.85</v>
       </c>
     </row>
     <row r="12">
@@ -645,11 +645,11 @@
         </is>
       </c>
       <c r="B12" s="8" t="n">
-        <v>-136221.54</v>
+        <v>-141099.22</v>
       </c>
       <c r="C12" s="8" t="inlineStr"/>
       <c r="D12" s="8" t="n">
-        <v>-136221.54</v>
+        <v>-141099.22</v>
       </c>
     </row>
     <row r="13">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="B13" s="8" t="n">
-        <v>70521.97</v>
+        <v>54759.92</v>
       </c>
       <c r="C13" s="8" t="n">
-        <v>898735.84</v>
+        <v>911003.9300000001</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>969257.8100000001</v>
+        <v>965763.85</v>
       </c>
     </row>
     <row r="14">
@@ -675,11 +675,11 @@
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>-969257.8100000001</v>
+        <v>-965763.85</v>
       </c>
       <c r="C14" s="8" t="inlineStr"/>
       <c r="D14" s="8" t="n">
-        <v>-969257.8100000001</v>
+        <v>-965763.85</v>
       </c>
     </row>
     <row r="15">
@@ -689,11 +689,11 @@
         </is>
       </c>
       <c r="B15" s="8" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
       <c r="C15" s="8" t="inlineStr"/>
       <c r="D15" s="8" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
     </row>
     <row r="16">
@@ -703,11 +703,11 @@
         </is>
       </c>
       <c r="B16" s="8" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
       <c r="C16" s="8" t="inlineStr"/>
       <c r="D16" s="8" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
     </row>
     <row r="17">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
       <c r="C17" s="9" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="9" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
